--- a/current_experiments/LOGS/장비 사용 기록.xlsx
+++ b/current_experiments/LOGS/장비 사용 기록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W00Y0NG\PRGM2\2025BCI\current_experiments\LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EBA98-3CE3-4BBC-AEA9-A1852A963B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D868C-C526-4ADD-8435-5C53CA3E7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BFDF85B2-85C8-422A-93DE-4D6BAAA98987}"/>
+    <workbookView xWindow="4750" yWindow="-11660" windowWidth="19200" windowHeight="11170" xr2:uid="{BFDF85B2-85C8-422A-93DE-4D6BAAA98987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>19:00-19:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:50-08:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:40-19:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,11 +104,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,15 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65CA95D-07E2-4A2E-A3FB-CACE6586D966}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -458,6 +474,30 @@
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/current_experiments/LOGS/장비 사용 기록.xlsx
+++ b/current_experiments/LOGS/장비 사용 기록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W00Y0NG\PRGM2\2025BCI\current_experiments\LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EBA98-3CE3-4BBC-AEA9-A1852A963B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F5CD8-33F7-493D-8147-DDD9DBA3D3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BFDF85B2-85C8-422A-93DE-4D6BAAA98987}"/>
+    <workbookView xWindow="9700" yWindow="-14480" windowWidth="19200" windowHeight="11170" xr2:uid="{BFDF85B2-85C8-422A-93DE-4D6BAAA98987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>19:00-19:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:50-08:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:50-11:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65CA95D-07E2-4A2E-A3FB-CACE6586D966}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -460,6 +476,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
